--- a/excelfiles/MW-NIFTY-NEXT-50-31-Dec-2025.xlsx
+++ b/excelfiles/MW-NIFTY-NEXT-50-31-Dec-2025.xlsx
@@ -15,13 +15,14 @@
   <sheets>
     <sheet name="MW-NIFTY-NEXT-50-31-Dec-2025" sheetId="1" r:id="rId1"/>
     <sheet name="Result" r:id="rId5" sheetId="2"/>
+    <sheet name="Result1" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="121">
   <si>
     <t xml:space="preserve">SYMBOL 
 </t>
@@ -396,6 +397,9 @@
   </si>
   <si>
     <t>DiffFrom52WHigh</t>
+  </si>
+  <si>
+    <t>DiffFrom52WLow</t>
   </si>
 </sst>
 </file>
@@ -4595,4 +4599,1034 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>3074.8</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>6740.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>45.62017804154303</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>2450.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>125.50204081632654</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>357.5</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>544.7</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>65.63245823389022</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>330.95</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>108.02235987309261</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>2490.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>3775.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>65.96026490066225</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>1918.05</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>129.81934777508408</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>12264.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>17820.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>68.82154882154883</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>8482.5</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>144.58001768346597</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>94.38</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>136.96</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>68.91063084112149</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>92.1</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>102.47557003257329</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>1061.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>1531.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>69.30111038536904</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>1035.15</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>102.49722262474036</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>2560.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>3625.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>70.62068965517241</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>2508.8</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>102.0408163265306</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>482.8</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>674.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>71.6320474777448</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>418.75</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>115.29552238805971</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>1334.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>1825.78</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>73.06466277426634</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>1157.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>115.2981849611063</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>490.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>663.6</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>73.83966244725738</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>419.55</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>116.7918007388869</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>5167.5</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>6948.4</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>74.36963905359508</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>4684.45</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>110.31177619571135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>355.05</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>474.85</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>74.77098030957144</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>329.9</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>107.62352227947864</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>3776.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>4949.5</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>76.29053439741388</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>3340.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>113.05389221556887</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>11305.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>14763.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>76.57657657657658</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>10245.1</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>110.3454334267113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>689.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>886.8</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>77.69508344609832</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>601.2</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>114.60412508316699</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>142.89</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>182.7</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>78.21018062397373</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>160.55056179775278</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>124.75</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>78.95569620253164</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>108.04</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>115.46649389115142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>2295.4</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>2890.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>79.42560553633218</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>1541.7</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>148.88759161964066</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>647.35</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>797.55</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>81.16732493260612</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>517.7</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>125.04346146416843</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>26635.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>32490.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>81.97907048322561</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>24817.8</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>107.32216393072714</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>737.45</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>894.9</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>82.40585540283831</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>672.6</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>109.64168896818317</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>1421.4</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>1721.2</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>82.58191959098305</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>1380.0</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>202.79</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>84.81680556240447</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>150.52</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>114.27052883337761</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>4386.0</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>5165.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>84.91771539206196</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>3046.05</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>143.9897572265721</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>1444.8</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>1700.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>84.98823529411764</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>1271.1</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>113.6653292423885</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>36095.0</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>41945.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>86.0531648587436</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>25921.6</v>
+      </c>
+      <c r="F27" t="n" s="0">
+        <v>139.24680575273132</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>1015.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>1177.55</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>86.19591524776018</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>758.0</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>133.90501319261213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>914.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>1059.05</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>86.30376280628866</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>795.0</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>114.96855345911949</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>855.1</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>980.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>87.25510204081633</v>
+      </c>
+      <c r="E30" t="n" s="0">
+        <v>715.3</v>
+      </c>
+      <c r="F30" t="n" s="0">
+        <v>119.54424716902</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>556.5</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>624.95</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>89.04712376990159</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>455.0</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>122.3076923076923</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>6398.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>7071.5</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>90.47585377925475</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>4955.0</v>
+      </c>
+      <c r="F32" t="n" s="0">
+        <v>129.1220988900101</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>379.4</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>416.8</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>91.02687140115162</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>326.35</v>
+      </c>
+      <c r="F33" t="n" s="0">
+        <v>116.25555385322505</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>612.3</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>656.35</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>93.28864173078387</v>
+      </c>
+      <c r="E34" t="n" s="0">
+        <v>378.15</v>
+      </c>
+      <c r="F34" t="n" s="0">
+        <v>161.91987306624355</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>1225.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>1309.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>93.58288770053476</v>
+      </c>
+      <c r="E35" t="n" s="0">
+        <v>979.5</v>
+      </c>
+      <c r="F35" t="n" s="0">
+        <v>125.06380806533946</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>1482.1</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>1574.95</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>94.1045747484047</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>1311.1</v>
+      </c>
+      <c r="F36" t="n" s="0">
+        <v>113.04248341087637</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>1961.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>2068.7</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>94.79383187509065</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>1613.7</v>
+      </c>
+      <c r="F37" t="n" s="0">
+        <v>121.52196814773501</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>6060.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>6380.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>94.98432601880879</v>
+      </c>
+      <c r="E38" t="n" s="0">
+        <v>3802.0</v>
+      </c>
+      <c r="F38" t="n" s="0">
+        <v>159.3897948448185</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>6027.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>6336.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>95.12310606060606</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>4506.0</v>
+      </c>
+      <c r="F39" t="n" s="0">
+        <v>133.75499334221038</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>166.34</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>174.5</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>95.32378223495702</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>110.72</v>
+      </c>
+      <c r="F40" t="n" s="0">
+        <v>150.23482658959537</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>1700.1</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>1782.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>95.4040404040404</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>1169.8</v>
+      </c>
+      <c r="F41" t="n" s="0">
+        <v>145.33253547614976</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>1050.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>1098.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>95.62841530054645</v>
+      </c>
+      <c r="E42" t="n" s="0">
+        <v>723.35</v>
+      </c>
+      <c r="F42" t="n" s="0">
+        <v>145.15794566945462</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>123.7</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>127.8</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>96.79186228482003</v>
+      </c>
+      <c r="E43" t="n" s="0">
+        <v>85.46</v>
+      </c>
+      <c r="F43" t="n" s="0">
+        <v>144.74608003744444</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>295.9</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>303.95</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>97.35153808192136</v>
+      </c>
+      <c r="E44" t="n" s="0">
+        <v>190.7</v>
+      </c>
+      <c r="F44" t="n" s="0">
+        <v>155.1651809124279</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>119.99</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>122.8</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>97.71172638436482</v>
+      </c>
+      <c r="E45" t="n" s="0">
+        <v>71.5</v>
+      </c>
+      <c r="F45" t="n" s="0">
+        <v>167.8181818181818</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>602.4</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>616.0</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>97.79220779220779</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>363.0</v>
+      </c>
+      <c r="F46" t="n" s="0">
+        <v>165.9504132231405</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>1027.0</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>1050.0</v>
+      </c>
+      <c r="D47" t="n" s="0">
+        <v>97.80952380952381</v>
+      </c>
+      <c r="E47" t="n" s="0">
+        <v>639.45</v>
+      </c>
+      <c r="F47" t="n" s="0">
+        <v>160.60677144420984</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>154.8</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="D48" t="n" s="0">
+        <v>97.9746835443038</v>
+      </c>
+      <c r="E48" t="n" s="0">
+        <v>78.6</v>
+      </c>
+      <c r="F48" t="n" s="0">
+        <v>196.94656488549623</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>3846.6</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>3882.2</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>99.08299417855856</v>
+      </c>
+      <c r="E49" t="n" s="0">
+        <v>2886.45</v>
+      </c>
+      <c r="F49" t="n" s="0">
+        <v>133.26404406797278</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>383.45</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>386.0</v>
+      </c>
+      <c r="D50" t="n" s="0">
+        <v>99.33937823834196</v>
+      </c>
+      <c r="E50" t="n" s="0">
+        <v>234.01</v>
+      </c>
+      <c r="F50" t="n" s="0">
+        <v>163.86051878124866</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>3720.0</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>3734.9</v>
+      </c>
+      <c r="D51" t="n" s="0">
+        <v>99.60106026935125</v>
+      </c>
+      <c r="E51" t="n" s="0">
+        <v>2171.4</v>
+      </c>
+      <c r="F51" t="n" s="0">
+        <v>171.31804365846918</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>